--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship_2020\MarsQA_2\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644BF240-4993-4D6A-8E45-E2137275A8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D58CFFF-F3B1-4A46-9B73-EC340606C7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Url</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Testing123</t>
+  </si>
+  <si>
+    <t>11/24/2020</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,11 +748,11 @@
       <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6">
-        <v>43567</v>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="6">
-        <v>43597</v>
+        <v>44328</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
